--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-04_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_06-04_end.xlsx
@@ -616,7 +616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  "The Great Rebellion"?
+    <t xml:space="preserve">[name="???"]  'The Great Rebellion'?
 </t>
   </si>
   <si>
@@ -648,7 +648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Reunion Member"]  From the other side of the ghetto wall, we could hear them chanting things like "purify the town" and "exterminate the Infected."
+    <t xml:space="preserve">[name="Reunion Member"]  From the other side of the ghetto wall, we could hear them chanting things like 'purify the town' and 'exterminate the Infected.'
 </t>
   </si>
   <si>
@@ -724,7 +724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  It doesn't spread like a "true flame."
+    <t xml:space="preserve">[name="???"]  It doesn't spread like a 'true flame.'
 </t>
   </si>
   <si>
